--- a/2/web/beadando/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/2/web/beadando/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matep\Documents\GitHub\elte-ik\2\web\beadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3349B8D-F86A-488A-A008-0916F9E575E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3679DF6-E752-438E-AF13-E9684C31232F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
   </bookViews>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Kurzus követelmény</t>
-  </si>
-  <si>
-    <t>írd ide hogy melyik oldalon van, és mit csinál a script</t>
   </si>
   <si>
     <t>írd ide , hogy melyik oldal</t>
@@ -622,7 +619,10 @@
     <t>ebyppb@inf.elte.hu</t>
   </si>
   <si>
-    <t>urlap.html</t>
+    <t>index.html, carousel</t>
+  </si>
+  <si>
+    <t>form.html</t>
   </si>
 </sst>
 </file>
@@ -1509,6 +1509,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1516,9 +1550,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1535,9 +1566,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1568,34 +1596,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1792,16 +1792,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.875</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.16666666666666666</c:v>
@@ -2115,16 +2115,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -2222,16 +2222,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
@@ -3621,18 +3621,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66"/>
-      <c r="B1" s="117" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="B1" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="66"/>
       <c r="J1" s="68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -3640,29 +3640,29 @@
       <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="119" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="C2" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="65"/>
       <c r="B3" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="119" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
+        <v>53</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -3670,54 +3670,54 @@
       <c r="B4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="119" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
+      <c r="C4" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="123" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
+      <c r="B5" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
       <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="102" t="str">
+      <c r="B7" s="112" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D12," pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 50 pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
       <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3734,7 +3734,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="B9" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3747,7 +3747,7 @@
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
       <c r="B10" s="99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="99"/>
       <c r="D10" s="42">
@@ -3755,17 +3755,17 @@
         <v>47</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="121" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
+      <c r="F10" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="B11" s="99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="99"/>
       <c r="D11" s="42">
@@ -3773,30 +3773,30 @@
         <v>100</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="65"/>
       <c r="B12" s="99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="99"/>
       <c r="D12" s="42">
         <v>50</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -3809,7 +3809,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="65"/>
       <c r="B14" s="99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="99"/>
       <c r="D14" s="42" t="b">
@@ -3825,26 +3825,26 @@
     <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="B15" s="99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="99"/>
       <c r="D15" s="43">
         <f>SUM(Irányelvek!J2:J48)</f>
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="106" t="str">
+      <c r="F15" s="100" t="str">
         <f>CONCATENATE("Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján ",VLOOKUP(D15,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
-        <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján elégtelen  érdemjegyet kapnál rá.</v>
-      </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+        <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján elégséges  érdemjegyet kapnál rá.</v>
+      </c>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65"/>
       <c r="B16" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -3857,7 +3857,7 @@
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
       <c r="B17" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="99"/>
       <c r="D17" s="42" t="str">
@@ -3865,17 +3865,17 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
+      <c r="F17" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="118"/>
+      <c r="H17" s="119"/>
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65"/>
       <c r="B18" s="99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="99"/>
       <c r="D18" s="43" t="str">
@@ -3883,15 +3883,15 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="65"/>
       <c r="B19" s="99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="99"/>
       <c r="D19" s="43" t="str">
@@ -3899,15 +3899,15 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="116"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65"/>
       <c r="B20" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3920,55 +3920,55 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
       <c r="B21" s="99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="99"/>
       <c r="D21" s="44">
         <v>20</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
+      <c r="F21" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="65"/>
       <c r="B22" s="99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="99"/>
       <c r="D22" s="44">
         <v>10</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
       <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
-      <c r="B23" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="105"/>
+      <c r="B23" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="115"/>
       <c r="D23" s="44" t="str">
         <f>IF(D26=TRUE,SUM(Irányelvek!L2:L48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
       <c r="B24" s="99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="99"/>
       <c r="D24" s="43" t="str">
@@ -3976,9 +3976,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
       <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3994,10 +3994,10 @@
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65"/>
-      <c r="B26" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="98"/>
+      <c r="B26" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="109"/>
       <c r="D26" s="45" t="b">
         <v>0</v>
       </c>
@@ -4009,10 +4009,10 @@
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65"/>
-      <c r="B27" s="124" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="125"/>
+      <c r="B27" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="107"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -4022,10 +4022,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="65"/>
-      <c r="B28" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="118"/>
+      <c r="B28" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="98"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4035,13 +4035,13 @@
     </row>
     <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4058,6 +4058,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Mz7EfEDe6v8cDUz4TxEHDWHiqsbUlOKtpPmMASCpJrCgqIKcchwB59qyedMGM9nhDxctmLUFNc/7+3pzDxMfOQ==" saltValue="ufiuVYYMa4lem5kpeJ7gNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F21:H24"/>
+    <mergeCell ref="F17:H19"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B12:C12"/>
@@ -4074,17 +4085,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F21:H24"/>
-    <mergeCell ref="F17:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
@@ -4146,8 +4146,8 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4175,31 +4175,31 @@
         <v>9</v>
       </c>
       <c r="D1" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="G1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>33</v>
-      </c>
       <c r="J1" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" s="15"/>
     </row>
@@ -4211,7 +4211,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="50">
         <v>1</v>
@@ -4247,7 +4247,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="50">
         <v>1</v>
@@ -4283,7 +4283,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="50">
         <v>1</v>
@@ -4320,7 +4320,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="50">
         <v>1</v>
@@ -4357,7 +4357,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="50">
         <v>1</v>
@@ -4396,11 +4396,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="50"/>
+        <v>81</v>
+      </c>
+      <c r="D7" s="50">
+        <v>1</v>
+      </c>
       <c r="E7" s="31" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="48"/>
@@ -4412,7 +4414,7 @@
       </c>
       <c r="J7" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K7" s="28">
         <f t="shared" si="1"/>
@@ -4420,7 +4422,7 @@
       </c>
       <c r="L7" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="11" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4432,7 +4434,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="50">
         <v>1</v>
@@ -4468,7 +4470,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="75">
         <v>1</v>
@@ -4504,7 +4506,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="50">
         <v>1</v>
@@ -4540,7 +4542,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="50">
         <v>1</v>
@@ -4576,7 +4578,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="50">
         <v>1</v>
@@ -4610,7 +4612,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="50">
         <v>1</v>
@@ -4644,7 +4646,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="50">
         <v>1</v>
@@ -4678,7 +4680,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="50">
         <v>1</v>
@@ -4712,7 +4714,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="50">
         <v>1</v>
@@ -4746,7 +4748,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="50">
         <v>1</v>
@@ -4780,7 +4782,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="50">
         <v>1</v>
@@ -4814,7 +4816,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="50">
         <v>1</v>
@@ -4848,9 +4850,11 @@
         <v>12</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="50"/>
+        <v>97</v>
+      </c>
+      <c r="D20" s="50">
+        <v>1</v>
+      </c>
       <c r="E20" s="31"/>
       <c r="F20" s="50"/>
       <c r="G20" s="48"/>
@@ -4858,9 +4862,9 @@
       <c r="I20" s="12">
         <v>3</v>
       </c>
-      <c r="J20" s="27" t="str">
+      <c r="J20" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K20" s="28" t="str">
         <f t="shared" si="1"/>
@@ -4868,7 +4872,7 @@
       </c>
       <c r="L20" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -4880,7 +4884,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="50">
         <v>1</v>
@@ -4914,7 +4918,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="50">
         <v>1</v>
@@ -4948,7 +4952,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="50">
         <v>1</v>
@@ -4982,7 +4986,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="50">
         <v>1</v>
@@ -5016,7 +5020,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="50">
         <v>1</v>
@@ -5050,7 +5054,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="75">
         <v>1</v>
@@ -5084,7 +5088,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="50">
         <v>1</v>
@@ -5118,7 +5122,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="50">
         <v>1</v>
@@ -5152,7 +5156,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="50">
         <v>1</v>
@@ -5254,7 +5258,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="50">
         <v>1</v>
@@ -5288,7 +5292,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="50">
         <v>1</v>
@@ -5322,7 +5326,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="50">
         <v>1</v>
@@ -5356,7 +5360,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="75">
         <v>1</v>
@@ -5390,7 +5394,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="50">
         <v>1</v>
@@ -5426,7 +5430,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="50">
         <v>1</v>
@@ -5460,7 +5464,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="50">
         <v>1</v>
@@ -5496,7 +5500,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="31"/>
@@ -5528,9 +5532,11 @@
         <v>11</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="50"/>
+        <v>85</v>
+      </c>
+      <c r="D40" s="50">
+        <v>1</v>
+      </c>
       <c r="E40" s="31"/>
       <c r="F40" s="50"/>
       <c r="G40" s="48"/>
@@ -5542,7 +5548,7 @@
       </c>
       <c r="J40" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K40" s="28">
         <f t="shared" si="1"/>
@@ -5550,7 +5556,7 @@
       </c>
       <c r="L40" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.25">
@@ -5562,7 +5568,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="32"/>
@@ -5594,7 +5600,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="75">
         <v>1</v>
@@ -5625,10 +5631,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="50">
         <v>1</v>
@@ -5661,10 +5667,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" s="50">
         <v>0</v>
@@ -5697,12 +5703,14 @@
         <v>44</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="50"/>
+        <v>104</v>
+      </c>
+      <c r="D45" s="50">
+        <v>0</v>
+      </c>
       <c r="E45" s="31"/>
       <c r="F45" s="50"/>
       <c r="G45" s="48"/>
@@ -5731,12 +5739,14 @@
         <v>45</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="50"/>
+        <v>92</v>
+      </c>
+      <c r="D46" s="50">
+        <v>0</v>
+      </c>
       <c r="E46" s="31"/>
       <c r="F46" s="50"/>
       <c r="G46" s="60"/>
@@ -5765,14 +5775,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="50"/>
+        <v>91</v>
+      </c>
+      <c r="D47" s="50">
+        <v>0</v>
+      </c>
       <c r="E47" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47" s="50"/>
       <c r="G47" s="60"/>
@@ -5801,14 +5813,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="50"/>
+        <v>82</v>
+      </c>
+      <c r="D48" s="50">
+        <v>0</v>
+      </c>
       <c r="E48" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F48" s="50"/>
       <c r="G48" s="60"/>
@@ -5879,7 +5893,7 @@
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="126"/>
       <c r="D1" s="127"/>
@@ -5955,18 +5969,18 @@
       </c>
       <c r="C3" s="3">
         <f>COUNTIFS(Irányelvek!B2:B48,"="&amp;B3,Irányelvek!D2:D48,1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D7" si="0">E3-C3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="64">
         <v>8</v>
       </c>
       <c r="F3" s="9">
         <f>C3/E3</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -5999,18 +6013,18 @@
       </c>
       <c r="C4" s="3">
         <f>COUNTIFS(Irányelvek!B3:B49,"="&amp;B4,Irányelvek!D3:D49,1)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="64">
         <v>17</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" ref="F4:F8" si="1">C4/E4</f>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -6087,18 +6101,18 @@
       </c>
       <c r="C6" s="3">
         <f>COUNTIFS(Irányelvek!B5:B51,"="&amp;B6,Irányelvek!D5:D51,1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="64">
         <v>7</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6127,7 +6141,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3">
         <f>COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!D6:D52,1)</f>
@@ -6175,11 +6189,11 @@
       </c>
       <c r="C8" s="7">
         <f>SUM(C3:C7)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7">
         <f>SUM(D3:D7)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" s="7">
         <f>SUM(E3:E7)</f>
@@ -6187,7 +6201,7 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>0.78723404255319152</v>
+        <v>0.85106382978723405</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -7481,7 +7495,7 @@
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="126"/>
       <c r="D1" s="127"/>
@@ -7730,7 +7744,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3">
         <f>COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!F6:F52,1)</f>
@@ -9084,7 +9098,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -9105,7 +9119,7 @@
         <v>-100</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -9127,7 +9141,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <f>H3/2</f>
@@ -9143,7 +9157,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -9155,7 +9169,7 @@
         <v>76</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -9167,7 +9181,7 @@
         <v>89</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">

--- a/2/web/beadando/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/2/web/beadando/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matep\Documents\GitHub\elte-ik\2\web\beadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3679DF6-E752-438E-AF13-E9684C31232F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0222099F-7773-4A8B-A43D-EDA0B7134B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
   <si>
     <t>Neved:</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Kurzus követelmény</t>
-  </si>
-  <si>
-    <t>írd ide , hogy melyik oldal</t>
   </si>
   <si>
     <t>Nincs olyan szöveg aláhúzva, ami nem tölt be link szerepet</t>
@@ -623,6 +620,12 @@
   </si>
   <si>
     <t>form.html</t>
+  </si>
+  <si>
+    <t>index.html, districts.html, form.html</t>
+  </si>
+  <si>
+    <t>style.css, print.css, large.css</t>
   </si>
 </sst>
 </file>
@@ -1509,40 +1512,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1550,6 +1519,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1566,6 +1538,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1596,6 +1571,34 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1801,10 +1804,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2124,10 +2127,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,10 +2234,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3599,7 +3602,7 @@
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
@@ -3621,18 +3624,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66"/>
-      <c r="B1" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="B1" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
       <c r="I1" s="66"/>
       <c r="J1" s="68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -3640,29 +3643,29 @@
       <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="101" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
+      <c r="C2" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
       <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="65"/>
       <c r="B3" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
+        <v>52</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -3670,54 +3673,54 @@
       <c r="B4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
+      <c r="C4" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
+      <c r="B5" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
       <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="112" t="str">
+      <c r="B7" s="102" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D12," pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 50 pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3734,7 +3737,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="B9" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3747,7 +3750,7 @@
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65"/>
       <c r="B10" s="99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="99"/>
       <c r="D10" s="42">
@@ -3755,17 +3758,17 @@
         <v>47</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
+      <c r="F10" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
       <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="B11" s="99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="99"/>
       <c r="D11" s="42">
@@ -3773,30 +3776,30 @@
         <v>100</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="65"/>
       <c r="B12" s="99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="99"/>
       <c r="D12" s="42">
         <v>50</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -3809,12 +3812,12 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="65"/>
       <c r="B14" s="99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="99"/>
       <c r="D14" s="42" t="b">
         <f>IF(COUNTIFS(Irányelvek!D2:D48,"=1",Irányelvek!H2:H48,"=igaz")=19,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3825,26 +3828,26 @@
     <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="B15" s="99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="99"/>
       <c r="D15" s="43">
         <f>SUM(Irányelvek!J2:J48)</f>
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="100" t="str">
+      <c r="F15" s="106" t="str">
         <f>CONCATENATE("Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján ",VLOOKUP(D15,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
-        <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján elégséges  érdemjegyet kapnál rá.</v>
-      </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
+        <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján jeles  érdemjegyet kapnál rá.</v>
+      </c>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65"/>
       <c r="B16" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -3857,7 +3860,7 @@
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
       <c r="B17" s="99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="99"/>
       <c r="D17" s="42" t="str">
@@ -3865,17 +3868,17 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="118"/>
-      <c r="H17" s="119"/>
+      <c r="F17" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65"/>
       <c r="B18" s="99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="99"/>
       <c r="D18" s="43" t="str">
@@ -3883,15 +3886,15 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="122"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="113"/>
       <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="65"/>
       <c r="B19" s="99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="99"/>
       <c r="D19" s="43" t="str">
@@ -3899,15 +3902,15 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="125"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
       <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65"/>
       <c r="B20" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3920,55 +3923,55 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
       <c r="B21" s="99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="99"/>
       <c r="D21" s="44">
         <v>20</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
+      <c r="F21" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="65"/>
       <c r="B22" s="99" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="99"/>
       <c r="D22" s="44">
         <v>10</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
       <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
-      <c r="B23" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="115"/>
+      <c r="B23" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="105"/>
       <c r="D23" s="44" t="str">
         <f>IF(D26=TRUE,SUM(Irányelvek!L2:L48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
       <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
       <c r="B24" s="99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="99"/>
       <c r="D24" s="43" t="str">
@@ -3976,9 +3979,9 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
       <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3994,10 +3997,10 @@
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65"/>
-      <c r="B26" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="109"/>
+      <c r="B26" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="98"/>
       <c r="D26" s="45" t="b">
         <v>0</v>
       </c>
@@ -4009,10 +4012,10 @@
     </row>
     <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="65"/>
-      <c r="B27" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="107"/>
+      <c r="B27" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="125"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -4022,10 +4025,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="65"/>
-      <c r="B28" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="98"/>
+      <c r="B28" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="118"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4035,13 +4038,13 @@
     </row>
     <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
       <c r="I29" s="65"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4058,17 +4061,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Mz7EfEDe6v8cDUz4TxEHDWHiqsbUlOKtpPmMASCpJrCgqIKcchwB59qyedMGM9nhDxctmLUFNc/7+3pzDxMfOQ==" saltValue="ufiuVYYMa4lem5kpeJ7gNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F21:H24"/>
-    <mergeCell ref="F17:H19"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B12:C12"/>
@@ -4085,6 +4077,17 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F21:H24"/>
+    <mergeCell ref="F17:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
@@ -4145,9 +4148,9 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4175,31 +4178,31 @@
         <v>9</v>
       </c>
       <c r="D1" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="G1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>32</v>
-      </c>
       <c r="J1" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N1" s="15"/>
     </row>
@@ -4211,7 +4214,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="50">
         <v>1</v>
@@ -4247,7 +4250,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="50">
         <v>1</v>
@@ -4283,7 +4286,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="50">
         <v>1</v>
@@ -4320,7 +4323,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="50">
         <v>1</v>
@@ -4357,13 +4360,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="50">
         <v>1</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="48"/>
@@ -4396,13 +4399,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="50">
         <v>1</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="48"/>
@@ -4434,7 +4437,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="50">
         <v>1</v>
@@ -4470,7 +4473,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="75">
         <v>1</v>
@@ -4506,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="50">
         <v>1</v>
@@ -4542,7 +4545,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="50">
         <v>1</v>
@@ -4578,7 +4581,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="50">
         <v>1</v>
@@ -4612,7 +4615,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="50">
         <v>1</v>
@@ -4646,7 +4649,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="50">
         <v>1</v>
@@ -4680,7 +4683,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="50">
         <v>1</v>
@@ -4714,7 +4717,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="50">
         <v>1</v>
@@ -4748,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="50">
         <v>1</v>
@@ -4782,7 +4785,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="50">
         <v>1</v>
@@ -4816,7 +4819,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="50">
         <v>1</v>
@@ -4850,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="50">
         <v>1</v>
@@ -4884,7 +4887,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="50">
         <v>1</v>
@@ -4918,7 +4921,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="50">
         <v>1</v>
@@ -4952,7 +4955,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="50">
         <v>1</v>
@@ -4986,7 +4989,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="50">
         <v>1</v>
@@ -5020,7 +5023,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="50">
         <v>1</v>
@@ -5054,7 +5057,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="75">
         <v>1</v>
@@ -5088,7 +5091,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="50">
         <v>1</v>
@@ -5122,7 +5125,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="50">
         <v>1</v>
@@ -5156,7 +5159,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="50">
         <v>1</v>
@@ -5258,7 +5261,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="50">
         <v>1</v>
@@ -5292,7 +5295,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="50">
         <v>1</v>
@@ -5326,7 +5329,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="50">
         <v>1</v>
@@ -5360,7 +5363,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="75">
         <v>1</v>
@@ -5394,7 +5397,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" s="50">
         <v>1</v>
@@ -5430,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="50">
         <v>1</v>
@@ -5464,7 +5467,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="50">
         <v>1</v>
@@ -5500,9 +5503,11 @@
         <v>11</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="50"/>
+        <v>102</v>
+      </c>
+      <c r="D39" s="50">
+        <v>1</v>
+      </c>
       <c r="E39" s="31"/>
       <c r="F39" s="50"/>
       <c r="G39" s="48"/>
@@ -5510,9 +5515,9 @@
       <c r="I39" s="12">
         <v>5</v>
       </c>
-      <c r="J39" s="27" t="str">
+      <c r="J39" s="27">
         <f t="shared" si="0"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="K39" s="28" t="str">
         <f t="shared" si="1"/>
@@ -5520,7 +5525,7 @@
       </c>
       <c r="L39" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5532,7 +5537,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" s="50">
         <v>1</v>
@@ -5568,7 +5573,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="32"/>
@@ -5600,7 +5605,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" s="75">
         <v>1</v>
@@ -5631,10 +5636,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D43" s="50">
         <v>1</v>
@@ -5667,13 +5672,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="50"/>
@@ -5686,7 +5691,7 @@
       </c>
       <c r="J44" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K44" s="28">
         <f t="shared" si="1"/>
@@ -5694,7 +5699,7 @@
       </c>
       <c r="L44" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -5703,13 +5708,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="31"/>
       <c r="F45" s="50"/>
@@ -5722,7 +5727,7 @@
       </c>
       <c r="J45" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K45" s="28">
         <f t="shared" si="1"/>
@@ -5730,7 +5735,7 @@
       </c>
       <c r="L45" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5739,13 +5744,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="50"/>
@@ -5758,7 +5763,7 @@
       </c>
       <c r="J46" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K46" s="28">
         <f t="shared" si="1"/>
@@ -5766,7 +5771,7 @@
       </c>
       <c r="L46" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -5775,16 +5780,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D47" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="F47" s="50"/>
       <c r="G47" s="60"/>
@@ -5796,7 +5801,7 @@
       </c>
       <c r="J47" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="K47" s="28">
         <f t="shared" si="1"/>
@@ -5804,7 +5809,7 @@
       </c>
       <c r="L47" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="11" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5813,16 +5818,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="F48" s="50"/>
       <c r="G48" s="60"/>
@@ -5834,7 +5839,7 @@
       </c>
       <c r="J48" s="27">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K48" s="28">
         <f t="shared" si="1"/>
@@ -5842,7 +5847,7 @@
       </c>
       <c r="L48" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5893,7 +5898,7 @@
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="126"/>
       <c r="D1" s="127"/>
@@ -6101,18 +6106,18 @@
       </c>
       <c r="C6" s="3">
         <f>COUNTIFS(Irányelvek!B5:B51,"="&amp;B6,Irányelvek!D5:D51,1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="64">
         <v>7</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6141,22 +6146,22 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <f>COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!D6:D52,1)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="64">
         <v>6</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -6189,11 +6194,11 @@
       </c>
       <c r="C8" s="7">
         <f>SUM(C3:C7)</f>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7">
         <f>SUM(D3:D7)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7">
         <f>SUM(E3:E7)</f>
@@ -6201,7 +6206,7 @@
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>0.85106382978723405</v>
+        <v>0.97872340425531912</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -7495,7 +7500,7 @@
     <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="126"/>
       <c r="D1" s="127"/>
@@ -7744,7 +7749,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <f>COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!F6:F52,1)</f>
@@ -9098,7 +9103,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -9119,7 +9124,7 @@
         <v>-100</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -9141,7 +9146,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <f>H3/2</f>
@@ -9157,7 +9162,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -9169,7 +9174,7 @@
         <v>76</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -9181,7 +9186,7 @@
         <v>89</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
